--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0657B4C3-2A12-44A4-BB57-DD83955D3DAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC0B9D3-9AF1-4D57-ABB5-AC175A04D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46028</v>
+        <v>46029</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC0B9D3-9AF1-4D57-ABB5-AC175A04D344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20B9EA-A14D-4749-B5C1-00202190B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46029</v>
+        <v>46030</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE20B9EA-A14D-4749-B5C1-00202190B5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF674B6-8B8E-425E-ACE2-292EF9FF814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46030</v>
+        <v>46031</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF674B6-8B8E-425E-ACE2-292EF9FF814D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F504870-1CF8-4740-BB5E-4A8B4C11D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46031</v>
+        <v>46032</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F504870-1CF8-4740-BB5E-4A8B4C11D83B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1730A94-5F04-4775-9444-9138F5291E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46032</v>
+        <v>46033</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1730A94-5F04-4775-9444-9138F5291E8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8250A6F-1547-43DF-88FF-685C0532A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46033</v>
+        <v>46034</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8250A6F-1547-43DF-88FF-685C0532A67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A0EA88-C9FA-4EE8-803C-190194E24D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46034</v>
+        <v>46035</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A0EA88-C9FA-4EE8-803C-190194E24D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB13073-D0AA-4144-B666-EE1642DAF442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46035</v>
+        <v>46037</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB13073-D0AA-4144-B666-EE1642DAF442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFEB408-F4C2-402A-B895-4BF392F7727A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46037</v>
+        <v>46038</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EFEB408-F4C2-402A-B895-4BF392F7727A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7911E1-9D68-4D0B-A182-E6FA0F7EF125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46038</v>
+        <v>46039</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7911E1-9D68-4D0B-A182-E6FA0F7EF125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B331B3F3-75F2-44FC-A8D9-021A6C39C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46039</v>
+        <v>46040</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B331B3F3-75F2-44FC-A8D9-021A6C39C0EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203960ED-AEEB-4E61-9862-9983365C7255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,7 +439,7 @@
         <v>46023</v>
       </c>
       <c r="B2" s="1">
-        <v>46040</v>
+        <v>46041</v>
       </c>
     </row>
   </sheetData>

--- a/Date.xlsx
+++ b/Date.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Stock Kundali Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203960ED-AEEB-4E61-9862-9983365C7255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F1D4A6-519A-4253-900B-6DADBE91EA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{69F86BD5-D8CD-4678-9675-A0F99ACDEE80}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,10 +436,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>46023</v>
+        <v>46054</v>
       </c>
       <c r="B2" s="1">
-        <v>46041</v>
+        <v>46060</v>
       </c>
     </row>
   </sheetData>
